--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150732A-3720-4504-8773-B7D6C7BA865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CFBE2C-D370-4FE9-8F7D-92EDBC8DCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="243">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -268,6 +253,522 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>AllS</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0114h01</t>
+  </si>
+  <si>
+    <t>0114h02</t>
+  </si>
+  <si>
+    <t>0114h03</t>
+  </si>
+  <si>
+    <t>0114h04</t>
+  </si>
+  <si>
+    <t>0114h05</t>
+  </si>
+  <si>
+    <t>0114h06</t>
+  </si>
+  <si>
+    <t>0114h07</t>
+  </si>
+  <si>
+    <t>0114h08</t>
+  </si>
+  <si>
+    <t>0114h09</t>
+  </si>
+  <si>
+    <t>0114h10</t>
+  </si>
+  <si>
+    <t>0114h11</t>
+  </si>
+  <si>
+    <t>0114h12</t>
+  </si>
+  <si>
+    <t>0114h13</t>
+  </si>
+  <si>
+    <t>0114h14</t>
+  </si>
+  <si>
+    <t>0114h15</t>
+  </si>
+  <si>
+    <t>0114h16</t>
+  </si>
+  <si>
+    <t>0114h17</t>
+  </si>
+  <si>
+    <t>0114h18</t>
+  </si>
+  <si>
+    <t>0114h19</t>
+  </si>
+  <si>
+    <t>0114h20</t>
+  </si>
+  <si>
+    <t>0114h21</t>
+  </si>
+  <si>
+    <t>0114h22</t>
+  </si>
+  <si>
+    <t>0114h23</t>
+  </si>
+  <si>
+    <t>0114h24</t>
+  </si>
+  <si>
+    <t>0115h01</t>
+  </si>
+  <si>
+    <t>0115h02</t>
+  </si>
+  <si>
+    <t>0115h03</t>
+  </si>
+  <si>
+    <t>0115h04</t>
+  </si>
+  <si>
+    <t>0115h05</t>
+  </si>
+  <si>
+    <t>0115h06</t>
+  </si>
+  <si>
+    <t>0115h07</t>
+  </si>
+  <si>
+    <t>0115h08</t>
+  </si>
+  <si>
+    <t>0115h09</t>
+  </si>
+  <si>
+    <t>0115h10</t>
+  </si>
+  <si>
+    <t>0115h11</t>
+  </si>
+  <si>
+    <t>0115h12</t>
+  </si>
+  <si>
+    <t>0115h13</t>
+  </si>
+  <si>
+    <t>0115h14</t>
+  </si>
+  <si>
+    <t>0115h15</t>
+  </si>
+  <si>
+    <t>0115h16</t>
+  </si>
+  <si>
+    <t>0115h17</t>
+  </si>
+  <si>
+    <t>0115h18</t>
+  </si>
+  <si>
+    <t>0115h19</t>
+  </si>
+  <si>
+    <t>0115h20</t>
+  </si>
+  <si>
+    <t>0115h21</t>
+  </si>
+  <si>
+    <t>0115h22</t>
+  </si>
+  <si>
+    <t>0115h23</t>
+  </si>
+  <si>
+    <t>0115h24</t>
+  </si>
+  <si>
+    <t>AllH</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR</t>
+  </si>
+  <si>
+    <t>AllSb0114h01</t>
+  </si>
+  <si>
+    <t>AllSb0114h02</t>
+  </si>
+  <si>
+    <t>AllSb0114h03</t>
+  </si>
+  <si>
+    <t>AllSb0114h04</t>
+  </si>
+  <si>
+    <t>AllSb0114h05</t>
+  </si>
+  <si>
+    <t>AllSb0114h06</t>
+  </si>
+  <si>
+    <t>AllSb0114h07</t>
+  </si>
+  <si>
+    <t>AllSb0114h08</t>
+  </si>
+  <si>
+    <t>AllSb0114h09</t>
+  </si>
+  <si>
+    <t>AllSb0114h10</t>
+  </si>
+  <si>
+    <t>AllSb0114h11</t>
+  </si>
+  <si>
+    <t>AllSb0114h12</t>
+  </si>
+  <si>
+    <t>AllSb0114h13</t>
+  </si>
+  <si>
+    <t>AllSb0114h14</t>
+  </si>
+  <si>
+    <t>AllSb0114h15</t>
+  </si>
+  <si>
+    <t>AllSb0114h16</t>
+  </si>
+  <si>
+    <t>AllSb0114h17</t>
+  </si>
+  <si>
+    <t>AllSb0114h18</t>
+  </si>
+  <si>
+    <t>AllSb0114h19</t>
+  </si>
+  <si>
+    <t>AllSb0114h20</t>
+  </si>
+  <si>
+    <t>AllSb0114h21</t>
+  </si>
+  <si>
+    <t>AllSb0114h22</t>
+  </si>
+  <si>
+    <t>AllSb0114h23</t>
+  </si>
+  <si>
+    <t>AllSb0114h24</t>
+  </si>
+  <si>
+    <t>AllSb0115h01</t>
+  </si>
+  <si>
+    <t>AllSb0115h02</t>
+  </si>
+  <si>
+    <t>AllSb0115h03</t>
+  </si>
+  <si>
+    <t>AllSb0115h04</t>
+  </si>
+  <si>
+    <t>AllSb0115h05</t>
+  </si>
+  <si>
+    <t>AllSb0115h06</t>
+  </si>
+  <si>
+    <t>AllSb0115h07</t>
+  </si>
+  <si>
+    <t>AllSb0115h08</t>
+  </si>
+  <si>
+    <t>AllSb0115h09</t>
+  </si>
+  <si>
+    <t>AllSb0115h10</t>
+  </si>
+  <si>
+    <t>AllSb0115h11</t>
+  </si>
+  <si>
+    <t>AllSb0115h12</t>
+  </si>
+  <si>
+    <t>AllSb0115h13</t>
+  </si>
+  <si>
+    <t>AllSb0115h14</t>
+  </si>
+  <si>
+    <t>AllSb0115h15</t>
+  </si>
+  <si>
+    <t>AllSb0115h16</t>
+  </si>
+  <si>
+    <t>AllSb0115h17</t>
+  </si>
+  <si>
+    <t>AllSb0115h18</t>
+  </si>
+  <si>
+    <t>AllSb0115h19</t>
+  </si>
+  <si>
+    <t>AllSb0115h20</t>
+  </si>
+  <si>
+    <t>AllSb0115h21</t>
+  </si>
+  <si>
+    <t>AllSb0115h22</t>
+  </si>
+  <si>
+    <t>AllSb0115h23</t>
+  </si>
+  <si>
+    <t>AllSb0115h24</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_won-BGR</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>AllSb0114h09,AllSb0114h15,AllSb0115h08,AllSb0115h14,AllSaAllH,AllSb0114h13,AllSb0115h12,AllSb0114h08,AllSb0114h16,AllSb0115h17,AllSb0114h18,AllSb0115h11,AllSb0114h14,AllSb0115h18,AllSb0114h11,AllSb0114h12,AllSb0114h17,AllSb0115h10,AllSb0115h15,AllSb0114h07,AllSb0115h07,AllSb0115h09,AllSb0115h13,AllSb0115h16,AllSb0114h10</t>
+  </si>
+  <si>
+    <t>AllSb0115h03,AllSb0115h24,AllSb0114h01,AllSb0114h20,AllSb0115h21,AllSaAllH,AllSb0115h02,AllSb0115h20,AllSb0114h06,AllSb0115h19,AllSb0115h01,AllSb0114h02,AllSb0114h03,AllSb0115h22,AllSb0115h23,AllSb0114h23,AllSb0115h04,AllSb0114h05,AllSb0114h04,AllSb0114h19,AllSb0114h21,AllSb0114h22,AllSb0114h24,AllSb0115h05,AllSb0115h06</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>AllSanan</t>
+  </si>
+  <si>
+    <t>nanaAllH</t>
+  </si>
+  <si>
+    <t>nananan</t>
+  </si>
+  <si>
+    <t>nanb0114h01</t>
+  </si>
+  <si>
+    <t>nanb0114h02</t>
+  </si>
+  <si>
+    <t>nanb0114h03</t>
+  </si>
+  <si>
+    <t>nanb0114h04</t>
+  </si>
+  <si>
+    <t>nanb0114h05</t>
+  </si>
+  <si>
+    <t>nanb0114h06</t>
+  </si>
+  <si>
+    <t>nanb0114h07</t>
+  </si>
+  <si>
+    <t>nanb0114h08</t>
+  </si>
+  <si>
+    <t>nanb0114h09</t>
+  </si>
+  <si>
+    <t>nanb0114h10</t>
+  </si>
+  <si>
+    <t>nanb0114h11</t>
+  </si>
+  <si>
+    <t>nanb0114h12</t>
+  </si>
+  <si>
+    <t>nanb0114h13</t>
+  </si>
+  <si>
+    <t>nanb0114h14</t>
+  </si>
+  <si>
+    <t>nanb0114h15</t>
+  </si>
+  <si>
+    <t>nanb0114h16</t>
+  </si>
+  <si>
+    <t>nanb0114h17</t>
+  </si>
+  <si>
+    <t>nanb0114h18</t>
+  </si>
+  <si>
+    <t>nanb0114h19</t>
+  </si>
+  <si>
+    <t>nanb0114h20</t>
+  </si>
+  <si>
+    <t>nanb0114h21</t>
+  </si>
+  <si>
+    <t>nanb0114h22</t>
+  </si>
+  <si>
+    <t>nanb0114h23</t>
+  </si>
+  <si>
+    <t>nanb0114h24</t>
+  </si>
+  <si>
+    <t>nanb0115h01</t>
+  </si>
+  <si>
+    <t>nanb0115h02</t>
+  </si>
+  <si>
+    <t>nanb0115h03</t>
+  </si>
+  <si>
+    <t>nanb0115h04</t>
+  </si>
+  <si>
+    <t>nanb0115h05</t>
+  </si>
+  <si>
+    <t>nanb0115h06</t>
+  </si>
+  <si>
+    <t>nanb0115h07</t>
+  </si>
+  <si>
+    <t>nanb0115h08</t>
+  </si>
+  <si>
+    <t>nanb0115h09</t>
+  </si>
+  <si>
+    <t>nanb0115h10</t>
+  </si>
+  <si>
+    <t>nanb0115h11</t>
+  </si>
+  <si>
+    <t>nanb0115h12</t>
+  </si>
+  <si>
+    <t>nanb0115h13</t>
+  </si>
+  <si>
+    <t>nanb0115h14</t>
+  </si>
+  <si>
+    <t>nanb0115h15</t>
+  </si>
+  <si>
+    <t>nanb0115h16</t>
+  </si>
+  <si>
+    <t>nanb0115h17</t>
+  </si>
+  <si>
+    <t>nanb0115h18</t>
+  </si>
+  <si>
+    <t>nanb0115h19</t>
+  </si>
+  <si>
+    <t>nanb0115h20</t>
+  </si>
+  <si>
+    <t>nanb0115h21</t>
+  </si>
+  <si>
+    <t>nanb0115h22</t>
+  </si>
+  <si>
+    <t>nanb0115h23</t>
+  </si>
+  <si>
+    <t>nanb0115h24</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
   </si>
 </sst>
 </file>
@@ -744,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -760,13 +1261,13 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -780,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -795,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -803,21 +1304,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSb0115h03,AllSb0115h24,AllSb0114h01,AllSb0114h20,AllSb0115h21,AllSaAllH,AllSb0115h02,AllSb0115h20,AllSb0114h06,AllSb0115h19,AllSb0115h01,AllSb0114h02,AllSb0114h03,AllSb0115h22,AllSb0115h23,AllSb0114h23,AllSb0115h04,AllSb0114h05,AllSb0114h04,AllSb0114h19,AllSb0114h21,AllSb0114h22,AllSb0114h24,AllSb0115h05,AllSb0115h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -835,21 +1336,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSb0114h09,AllSb0114h15,AllSb0115h08,AllSb0115h14,AllSaAllH,AllSb0114h13,AllSb0115h12,AllSb0114h08,AllSb0114h16,AllSb0115h17,AllSb0114h18,AllSb0115h11,AllSb0114h14,AllSb0115h18,AllSb0114h11,AllSb0114h12,AllSb0114h17,AllSb0115h10,AllSb0115h15,AllSb0114h07,AllSb0115h07,AllSb0115h09,AllSb0115h13,AllSb0115h16,AllSb0114h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -861,26 +1362,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -908,553 +1409,6060 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F8EF77-0741-4001-B542-164B61CCDEC4}">
+  <dimension ref="B2:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA8A2BB-8139-4268-9EE4-30E62DDBC76C}">
+  <dimension ref="B2:K52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>0.99913669000000005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4">
+        <v>0.99288491759568087</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <v>6.1861304633862443E-5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6">
+        <v>6.1038106644624752E-5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>5.7853275079705118E-5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8">
+        <v>6.4816720365715833E-5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>8.4964828528533604E-5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>1.1862148074425196E-4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11">
+        <v>1.6261534049695516E-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12">
+        <v>1.9098193350314599E-4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13">
+        <v>2.2065754626260001E-4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14">
+        <v>2.4509708000860001E-4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>1.9259999999999999E-5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15">
+        <v>2.0849850711019999E-4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <v>1.6876908284273206E-4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>8.3239999999999996E-5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17">
+        <v>1.3458612371586174E-4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18">
+        <v>1.0858116428535281E-4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>5.5279999999999999E-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>1.4354683625444914E-4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>4.0080000000000003E-5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20">
+        <v>1.9296570570671883E-4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>1.198E-5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21">
+        <v>2.3721597139039999E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22">
+        <v>1.116E-5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22">
+        <v>2.7347716806380002E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23">
+        <v>2.750021086014E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24">
+        <v>2.6955010880379997E-4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25">
+        <v>2.5099441642339998E-4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26">
+        <v>2.384845059968E-4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27">
+        <v>2.5150722828559999E-4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28">
+        <v>2.5655437661299999E-4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29">
+        <v>2.549349707326E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30">
+        <v>2.6438150503520002E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31">
+        <v>2.5369342622420002E-4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32">
+        <v>2.629645248898E-4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33">
+        <v>2.7133145527220002E-4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34">
+        <v>2.8331505878780001E-4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35">
+        <v>2.8230293011239998E-4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36">
+        <v>2.4825492147559998E-4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37">
+        <v>2.3718898129240001E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38">
+        <v>2.511293669134E-4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39">
+        <v>2.2374E-4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39">
+        <v>2.4421990182339997E-4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40">
+        <v>1.0274E-4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40">
+        <v>2.4614969383100001E-4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41">
+        <v>6.1959999999999996E-5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41">
+        <v>2.654746040046E-4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42">
+        <v>8.7059999999999997E-5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42">
+        <v>3.4510888817659998E-4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>1.8443999999999999E-4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43">
+        <v>4.4010053811500001E-4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44">
+        <v>1.0662000000000001E-4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44">
+        <v>5.3302744555579998E-4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45">
+        <v>4.7016000000000001E-4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45">
+        <v>6.0613012601000004E-4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46">
+        <v>9.6119999999999995E-5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46">
+        <v>6.5614277761839998E-4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47">
+        <v>6.8002901435520004E-4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48">
+        <v>6.9032573674519999E-4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49">
+        <v>6.6897656922100003E-4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50">
+        <v>6.4461800576899998E-4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51">
+        <v>6.5453686678680005E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52">
+        <v>6.6758657917359999E-4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A43451-3779-43AA-B01E-17C9D6FC6E03}">
+  <dimension ref="B2:O203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0.9945205479452055</v>
+      </c>
+      <c r="C4">
+        <v>0.99452054794520584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>0.24827900071762687</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4">
+        <v>0.29978740397381842</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C5">
+        <v>4.3093089360150507E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5">
+        <v>0.24827900071762687</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5">
+        <v>0.29978740397381842</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C6">
+        <v>2.9833677249334962E-5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6">
+        <v>5.6016142944631772E-5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C7">
+        <v>3.3148530277038847E-5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7">
+        <v>5.612534008915599E-5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C8">
+        <v>2.9170706643794186E-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8">
+        <v>5.6398332950466511E-5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C9">
+        <v>4.2430118754609728E-5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9">
+        <v>5.8818869654086555E-5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.1535688536409519E-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10">
+        <v>6.9192598383886736E-5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C11">
+        <v>3.3811500882579627E-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11">
+        <v>7.6945595645105819E-5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C12">
+        <v>3.8120809818594675E-4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>8.0876692847977466E-5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C13">
+        <v>2.9170706643794189E-4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13">
+        <v>8.2168859058180647E-5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C14">
+        <v>2.8905518401577877E-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14">
+        <v>8.0894892372064835E-5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C15">
+        <v>2.817625073548302E-4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15">
+        <v>8.040350522170587E-5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C16">
+        <v>2.8109953674928942E-4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16">
+        <v>7.9493529017337443E-5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C17">
+        <v>2.8507736038253404E-4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C18">
+        <v>2.9767380188780885E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C19">
+        <v>3.0098865491551274E-4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C20">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20">
+        <v>8.0749296179365886E-5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C21">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C22">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C23">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23">
+        <v>8.094949094432694E-5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C24">
+        <v>3.1159618460416515E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24">
+        <v>7.9366132348725863E-5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C25">
+        <v>2.187802998284564E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25">
+        <v>7.4743453230534198E-5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>153</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C26">
+        <v>1.5911294532978647E-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26">
+        <v>7.1158146985322567E-5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>154</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C27">
+        <v>1.1270500294193207E-4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27">
+        <v>6.7008655493402497E-5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C28">
+        <v>5.9667354498669924E-5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28">
+        <v>5.670772485995179E-5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C29">
+        <v>4.3093089360150507E-5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29">
+        <v>5.4851373403040178E-5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C30">
+        <v>2.9833677249334962E-5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30">
+        <v>5.3741202433710683E-5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C31">
+        <v>3.3148530277038847E-5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31">
+        <v>5.4032394819108573E-5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C32">
+        <v>2.9170706643794186E-5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32">
+        <v>5.3886798626409631E-5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C33">
+        <v>4.2430118754609728E-5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33">
+        <v>5.6889720100825476E-5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>161</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C34">
+        <v>1.1535688536409519E-4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34">
+        <v>6.7827634077334082E-5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C35">
+        <v>3.3811500882579627E-4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35">
+        <v>7.5471434194028953E-5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C36">
+        <v>3.8120809818594675E-4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36">
+        <v>7.9548127589599548E-5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>164</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C37">
+        <v>2.9170706643794189E-4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37">
+        <v>8.0694697607103781E-5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>165</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C38">
+        <v>2.8905518401577877E-4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38">
+        <v>7.927513472828902E-5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C39">
+        <v>2.817625073548302E-4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39">
+        <v>7.8583552812969015E-5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C40">
+        <v>2.8109953674928942E-4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40">
+        <v>7.7637177560425837E-5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>168</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C41">
+        <v>2.8507736038253404E-4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C42">
+        <v>2.9767380188780885E-4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>170</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C43">
+        <v>3.0098865491551274E-4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>171</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C44">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44">
+        <v>7.8638151385231094E-5</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" t="s">
+        <v>173</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C46">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>174</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C47">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47">
+        <v>7.9438930445075337E-5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" t="s">
+        <v>175</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C48">
+        <v>3.1159618460416515E-4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" t="s">
+        <v>176</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C49">
+        <v>2.187802998284564E-4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49">
+        <v>7.3596883213029966E-5</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" t="s">
+        <v>177</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C50">
+        <v>1.5911294532978647E-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" t="s">
+        <v>189</v>
+      </c>
+      <c r="I50" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50">
+        <v>6.9738584106507806E-5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" t="s">
+        <v>178</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C51">
+        <v>1.1270500294193207E-4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51">
+        <v>6.5316099753277195E-5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" t="s">
+        <v>179</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C52">
+        <v>5.9667354498669924E-5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52">
+        <v>5.4341786728593852E-5</v>
+      </c>
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53">
+        <v>5.1338865254178001E-5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" t="s">
+        <v>181</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" t="s">
+        <v>191</v>
+      </c>
+      <c r="J54">
+        <v>0.24827900071762687</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54">
+        <v>0.29978740397381842</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55">
+        <v>0.24827900071762687</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55">
+        <v>0.29978740397381842</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" t="s">
+        <v>193</v>
+      </c>
+      <c r="J56">
+        <v>5.6016142944631772E-5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" t="s">
+        <v>193</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I57" t="s">
+        <v>194</v>
+      </c>
+      <c r="J57">
+        <v>5.612534008915599E-5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57" t="s">
+        <v>194</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" t="s">
+        <v>195</v>
+      </c>
+      <c r="J58">
+        <v>5.6398332950466511E-5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I59" t="s">
+        <v>196</v>
+      </c>
+      <c r="J59">
+        <v>5.8818869654086555E-5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" t="s">
+        <v>196</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60" t="s">
+        <v>197</v>
+      </c>
+      <c r="J60">
+        <v>6.9192598383886736E-5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" t="s">
+        <v>197</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61">
+        <v>7.6945595645105819E-5</v>
+      </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" t="s">
+        <v>198</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>189</v>
+      </c>
+      <c r="I62" t="s">
+        <v>199</v>
+      </c>
+      <c r="J62">
+        <v>8.0876692847977466E-5</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" t="s">
+        <v>199</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>189</v>
+      </c>
+      <c r="I63" t="s">
+        <v>200</v>
+      </c>
+      <c r="J63">
+        <v>8.2168859058180647E-5</v>
+      </c>
+      <c r="M63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" t="s">
+        <v>200</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64">
+        <v>8.0894892372064835E-5</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" t="s">
+        <v>201</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>189</v>
+      </c>
+      <c r="I65" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65">
+        <v>8.040350522170587E-5</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" t="s">
+        <v>202</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I66" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66">
+        <v>7.9493529017337443E-5</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" t="s">
+        <v>203</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" t="s">
+        <v>204</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>189</v>
+      </c>
+      <c r="I68" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>189</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>189</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70">
+        <v>8.0749296179365886E-5</v>
+      </c>
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" t="s">
+        <v>207</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M71" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" t="s">
+        <v>209</v>
+      </c>
+      <c r="J72">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>189</v>
+      </c>
+      <c r="I73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J73">
+        <v>8.094949094432694E-5</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73" t="s">
+        <v>210</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" t="s">
+        <v>211</v>
+      </c>
+      <c r="J74">
+        <v>7.9366132348725863E-5</v>
+      </c>
+      <c r="M74" t="s">
+        <v>14</v>
+      </c>
+      <c r="N74" t="s">
+        <v>211</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>189</v>
+      </c>
+      <c r="I75" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75">
+        <v>7.4743453230534198E-5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" t="s">
+        <v>212</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J76">
+        <v>7.1158146985322567E-5</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" t="s">
+        <v>213</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J77">
+        <v>6.7008655493402497E-5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" t="s">
+        <v>214</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I78" t="s">
+        <v>215</v>
+      </c>
+      <c r="J78">
+        <v>5.670772485995179E-5</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78" t="s">
+        <v>215</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" t="s">
+        <v>216</v>
+      </c>
+      <c r="J79">
+        <v>5.4851373403040178E-5</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" t="s">
+        <v>216</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>189</v>
+      </c>
+      <c r="I80" t="s">
+        <v>217</v>
+      </c>
+      <c r="J80">
+        <v>5.3741202433710683E-5</v>
+      </c>
+      <c r="M80" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" t="s">
+        <v>217</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>189</v>
+      </c>
+      <c r="I81" t="s">
+        <v>218</v>
+      </c>
+      <c r="J81">
+        <v>5.4032394819108573E-5</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" t="s">
+        <v>218</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>189</v>
+      </c>
+      <c r="I82" t="s">
+        <v>219</v>
+      </c>
+      <c r="J82">
+        <v>5.3886798626409631E-5</v>
+      </c>
+      <c r="M82" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" t="s">
+        <v>219</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>189</v>
+      </c>
+      <c r="I83" t="s">
+        <v>220</v>
+      </c>
+      <c r="J83">
+        <v>5.6889720100825476E-5</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H84" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84">
+        <v>6.7827634077334082E-5</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" t="s">
+        <v>221</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
+        <v>189</v>
+      </c>
+      <c r="I85" t="s">
+        <v>222</v>
+      </c>
+      <c r="J85">
+        <v>7.5471434194028953E-5</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" t="s">
+        <v>222</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H86" t="s">
+        <v>189</v>
+      </c>
+      <c r="I86" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86">
+        <v>7.9548127589599548E-5</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" t="s">
+        <v>223</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87" t="s">
+        <v>224</v>
+      </c>
+      <c r="J87">
+        <v>8.0694697607103781E-5</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" t="s">
+        <v>224</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H88" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" t="s">
+        <v>225</v>
+      </c>
+      <c r="J88">
+        <v>7.927513472828902E-5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" t="s">
+        <v>225</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H89" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" t="s">
+        <v>226</v>
+      </c>
+      <c r="J89">
+        <v>7.8583552812969015E-5</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>226</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H90" t="s">
+        <v>189</v>
+      </c>
+      <c r="I90" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90">
+        <v>7.7637177560425837E-5</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" t="s">
+        <v>227</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H91" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" t="s">
+        <v>228</v>
+      </c>
+      <c r="J91">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" t="s">
+        <v>228</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H92" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" t="s">
+        <v>229</v>
+      </c>
+      <c r="J92">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" t="s">
+        <v>229</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" t="s">
+        <v>230</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H94" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" t="s">
+        <v>231</v>
+      </c>
+      <c r="J94">
+        <v>7.8638151385231094E-5</v>
+      </c>
+      <c r="M94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" t="s">
+        <v>231</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H95" t="s">
+        <v>189</v>
+      </c>
+      <c r="I95" t="s">
+        <v>232</v>
+      </c>
+      <c r="J95">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>232</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H96" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" t="s">
+        <v>233</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H97" t="s">
+        <v>189</v>
+      </c>
+      <c r="I97" t="s">
+        <v>234</v>
+      </c>
+      <c r="J97">
+        <v>7.9438930445075337E-5</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>234</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H98" t="s">
+        <v>189</v>
+      </c>
+      <c r="I98" t="s">
+        <v>235</v>
+      </c>
+      <c r="J98">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" t="s">
+        <v>235</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I99" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99">
+        <v>7.3596883213029966E-5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>236</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H100" t="s">
+        <v>189</v>
+      </c>
+      <c r="I100" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100">
+        <v>6.9738584106507806E-5</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100" t="s">
+        <v>237</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>189</v>
+      </c>
+      <c r="I101" t="s">
+        <v>238</v>
+      </c>
+      <c r="J101">
+        <v>6.5316099753277195E-5</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>238</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
+        <v>189</v>
+      </c>
+      <c r="I102" t="s">
+        <v>239</v>
+      </c>
+      <c r="J102">
+        <v>5.4341786728593852E-5</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102" t="s">
+        <v>239</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>189</v>
+      </c>
+      <c r="I103" t="s">
+        <v>240</v>
+      </c>
+      <c r="J103">
+        <v>5.1338865254178001E-5</v>
+      </c>
+      <c r="M103" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103" t="s">
+        <v>240</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H104" t="s">
+        <v>241</v>
+      </c>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+      <c r="J104">
+        <v>0.24862365901431119</v>
+      </c>
+    </row>
+    <row r="105" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
+        <v>241</v>
+      </c>
+      <c r="I105" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105">
+        <v>0.24862365901431119</v>
+      </c>
+    </row>
+    <row r="106" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
+        <v>241</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106">
+        <v>5.6266387141892538E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H107" t="s">
+        <v>241</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+      <c r="J107">
+        <v>5.6273910575130042E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H108" t="s">
+        <v>241</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J108">
+        <v>5.6292719158223806E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H109" t="s">
+        <v>241</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+      <c r="J109">
+        <v>5.64594885949885E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
+        <v>241</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110">
+        <v>5.7174214752551454E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H111" t="s">
+        <v>241</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+      <c r="J111">
+        <v>5.77083785124143E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H112" t="s">
+        <v>241</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+      <c r="J112">
+        <v>5.7979222108964476E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>241</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+      <c r="J113">
+        <v>5.8068249402274949E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H114" t="s">
+        <v>241</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+      <c r="J114">
+        <v>5.7980476014504063E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H115" t="s">
+        <v>241</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+      <c r="J115">
+        <v>5.7946620564935285E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H116" t="s">
+        <v>241</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+      <c r="J116">
+        <v>5.7883925287956079E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
+        <v>241</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+      <c r="J117">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H118" t="s">
+        <v>241</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+      <c r="J118">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H119" t="s">
+        <v>241</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+      <c r="J119">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H120" t="s">
+        <v>241</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+      <c r="J120">
+        <v>5.7970444770187384E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H121" t="s">
+        <v>241</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+      <c r="J121">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H122" t="s">
+        <v>241</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+      <c r="J122">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H123" t="s">
+        <v>241</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+      <c r="J123">
+        <v>5.7984237731122811E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H124" t="s">
+        <v>241</v>
+      </c>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+      <c r="J124">
+        <v>5.7875147949178988E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H125" t="s">
+        <v>241</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+      <c r="J125">
+        <v>5.7556655942124621E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H126" t="s">
+        <v>241</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+      <c r="J126">
+        <v>5.7309636550826545E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H127" t="s">
+        <v>241</v>
+      </c>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+      <c r="J127">
+        <v>5.7023746087801355E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
+        <v>241</v>
+      </c>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+      <c r="J128">
+        <v>5.631403555239673E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
+        <v>241</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+      <c r="J129">
+        <v>5.618613718735915E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H130" t="s">
+        <v>241</v>
+      </c>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+      <c r="J130">
+        <v>5.610964894944453E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H131" t="s">
+        <v>241</v>
+      </c>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+      <c r="J131">
+        <v>5.6129711438077867E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H132" t="s">
+        <v>241</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+      <c r="J132">
+        <v>5.6119680193761195E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
+        <v>241</v>
+      </c>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+      <c r="J133">
+        <v>5.6326574607792583E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
+        <v>241</v>
+      </c>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+      <c r="J134">
+        <v>5.7080171837082651E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H135" t="s">
+        <v>241</v>
+      </c>
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+      <c r="J135">
+        <v>5.7606812163707987E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H136" t="s">
+        <v>241</v>
+      </c>
+      <c r="I136" t="s">
+        <v>164</v>
+      </c>
+      <c r="J136">
+        <v>5.7887687004574841E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>241</v>
+      </c>
+      <c r="I137" t="s">
+        <v>165</v>
+      </c>
+      <c r="J137">
+        <v>5.7966683053568642E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H138" t="s">
+        <v>241</v>
+      </c>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+      <c r="J138">
+        <v>5.7868878421481078E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H139" t="s">
+        <v>241</v>
+      </c>
+      <c r="I139" t="s">
+        <v>167</v>
+      </c>
+      <c r="J139">
+        <v>5.7821230010976873E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
+        <v>241</v>
+      </c>
+      <c r="I140" t="s">
+        <v>168</v>
+      </c>
+      <c r="J140">
+        <v>5.7756026922918505E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H141" t="s">
+        <v>241</v>
+      </c>
+      <c r="I141" t="s">
+        <v>169</v>
+      </c>
+      <c r="J141">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H142" t="s">
+        <v>241</v>
+      </c>
+      <c r="I142" t="s">
+        <v>170</v>
+      </c>
+      <c r="J142">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H143" t="s">
+        <v>241</v>
+      </c>
+      <c r="I143" t="s">
+        <v>171</v>
+      </c>
+      <c r="J143">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
+        <v>241</v>
+      </c>
+      <c r="I144" t="s">
+        <v>172</v>
+      </c>
+      <c r="J144">
+        <v>5.7824991727595635E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
+        <v>241</v>
+      </c>
+      <c r="I145" t="s">
+        <v>173</v>
+      </c>
+      <c r="J145">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H146" t="s">
+        <v>241</v>
+      </c>
+      <c r="I146" t="s">
+        <v>174</v>
+      </c>
+      <c r="J146">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>241</v>
+      </c>
+      <c r="I147" t="s">
+        <v>175</v>
+      </c>
+      <c r="J147">
+        <v>5.788016357133733E-5</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>241</v>
+      </c>
+      <c r="I148" t="s">
+        <v>176</v>
+      </c>
+      <c r="J148">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>241</v>
+      </c>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+      <c r="J149">
+        <v>5.747765989313082E-5</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H150" t="s">
+        <v>241</v>
+      </c>
+      <c r="I150" t="s">
+        <v>178</v>
+      </c>
+      <c r="J150">
+        <v>5.721183191873898E-5</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H151" t="s">
+        <v>241</v>
+      </c>
+      <c r="I151" t="s">
+        <v>179</v>
+      </c>
+      <c r="J151">
+        <v>5.6907132872620041E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
+        <v>241</v>
+      </c>
+      <c r="I152" t="s">
+        <v>180</v>
+      </c>
+      <c r="J152">
+        <v>5.6151027832250805E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H153" t="s">
+        <v>241</v>
+      </c>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+      <c r="J153">
+        <v>5.5944133418219416E-5</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>241</v>
+      </c>
+      <c r="I154" t="s">
+        <v>191</v>
+      </c>
+      <c r="J154">
+        <v>0.24862365901431119</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H155" t="s">
+        <v>241</v>
+      </c>
+      <c r="I155" t="s">
+        <v>192</v>
+      </c>
+      <c r="J155">
+        <v>0.24862365901431119</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H156" t="s">
+        <v>241</v>
+      </c>
+      <c r="I156" t="s">
+        <v>193</v>
+      </c>
+      <c r="J156">
+        <v>5.6266387141892538E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
+        <v>241</v>
+      </c>
+      <c r="I157" t="s">
+        <v>194</v>
+      </c>
+      <c r="J157">
+        <v>5.6273910575130042E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H158" t="s">
+        <v>241</v>
+      </c>
+      <c r="I158" t="s">
+        <v>195</v>
+      </c>
+      <c r="J158">
+        <v>5.6292719158223806E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H159" t="s">
+        <v>241</v>
+      </c>
+      <c r="I159" t="s">
+        <v>196</v>
+      </c>
+      <c r="J159">
+        <v>5.64594885949885E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H160" t="s">
+        <v>241</v>
+      </c>
+      <c r="I160" t="s">
+        <v>197</v>
+      </c>
+      <c r="J160">
+        <v>5.7174214752551454E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H161" t="s">
+        <v>241</v>
+      </c>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+      <c r="J161">
+        <v>5.77083785124143E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H162" t="s">
+        <v>241</v>
+      </c>
+      <c r="I162" t="s">
+        <v>199</v>
+      </c>
+      <c r="J162">
+        <v>5.7979222108964476E-5</v>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H163" t="s">
+        <v>241</v>
+      </c>
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+      <c r="J163">
+        <v>5.8068249402274949E-5</v>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H164" t="s">
+        <v>241</v>
+      </c>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+      <c r="J164">
+        <v>5.7980476014504063E-5</v>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
+        <v>241</v>
+      </c>
+      <c r="I165" t="s">
+        <v>202</v>
+      </c>
+      <c r="J165">
+        <v>5.7946620564935285E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H166" t="s">
+        <v>241</v>
+      </c>
+      <c r="I166" t="s">
+        <v>203</v>
+      </c>
+      <c r="J166">
+        <v>5.7883925287956079E-5</v>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H167" t="s">
+        <v>241</v>
+      </c>
+      <c r="I167" t="s">
+        <v>204</v>
+      </c>
+      <c r="J167">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H168" t="s">
+        <v>241</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+      <c r="J168">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H169" t="s">
+        <v>241</v>
+      </c>
+      <c r="I169" t="s">
+        <v>206</v>
+      </c>
+      <c r="J169">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H170" t="s">
+        <v>241</v>
+      </c>
+      <c r="I170" t="s">
+        <v>207</v>
+      </c>
+      <c r="J170">
+        <v>5.7970444770187384E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H171" t="s">
+        <v>241</v>
+      </c>
+      <c r="I171" t="s">
+        <v>208</v>
+      </c>
+      <c r="J171">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H172" t="s">
+        <v>241</v>
+      </c>
+      <c r="I172" t="s">
+        <v>209</v>
+      </c>
+      <c r="J172">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H173" t="s">
+        <v>241</v>
+      </c>
+      <c r="I173" t="s">
+        <v>210</v>
+      </c>
+      <c r="J173">
+        <v>5.7984237731122811E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H174" t="s">
+        <v>241</v>
+      </c>
+      <c r="I174" t="s">
+        <v>211</v>
+      </c>
+      <c r="J174">
+        <v>5.7875147949178988E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H175" t="s">
+        <v>241</v>
+      </c>
+      <c r="I175" t="s">
+        <v>212</v>
+      </c>
+      <c r="J175">
+        <v>5.7556655942124621E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H176" t="s">
+        <v>241</v>
+      </c>
+      <c r="I176" t="s">
+        <v>213</v>
+      </c>
+      <c r="J176">
+        <v>5.7309636550826545E-5</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H177" t="s">
+        <v>241</v>
+      </c>
+      <c r="I177" t="s">
+        <v>214</v>
+      </c>
+      <c r="J177">
+        <v>5.7023746087801355E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H178" t="s">
+        <v>241</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
+      </c>
+      <c r="J178">
+        <v>5.631403555239673E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H179" t="s">
+        <v>241</v>
+      </c>
+      <c r="I179" t="s">
+        <v>216</v>
+      </c>
+      <c r="J179">
+        <v>5.618613718735915E-5</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H180" t="s">
+        <v>241</v>
+      </c>
+      <c r="I180" t="s">
+        <v>217</v>
+      </c>
+      <c r="J180">
+        <v>5.610964894944453E-5</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H181" t="s">
+        <v>241</v>
+      </c>
+      <c r="I181" t="s">
+        <v>218</v>
+      </c>
+      <c r="J181">
+        <v>5.6129711438077867E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H182" t="s">
+        <v>241</v>
+      </c>
+      <c r="I182" t="s">
+        <v>219</v>
+      </c>
+      <c r="J182">
+        <v>5.6119680193761195E-5</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H183" t="s">
+        <v>241</v>
+      </c>
+      <c r="I183" t="s">
+        <v>220</v>
+      </c>
+      <c r="J183">
+        <v>5.6326574607792583E-5</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H184" t="s">
+        <v>241</v>
+      </c>
+      <c r="I184" t="s">
+        <v>221</v>
+      </c>
+      <c r="J184">
+        <v>5.7080171837082651E-5</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H185" t="s">
+        <v>241</v>
+      </c>
+      <c r="I185" t="s">
+        <v>222</v>
+      </c>
+      <c r="J185">
+        <v>5.7606812163707987E-5</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H186" t="s">
+        <v>241</v>
+      </c>
+      <c r="I186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J186">
+        <v>5.7887687004574841E-5</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H187" t="s">
+        <v>241</v>
+      </c>
+      <c r="I187" t="s">
+        <v>224</v>
+      </c>
+      <c r="J187">
+        <v>5.7966683053568642E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H188" t="s">
+        <v>241</v>
+      </c>
+      <c r="I188" t="s">
+        <v>225</v>
+      </c>
+      <c r="J188">
+        <v>5.7868878421481078E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H189" t="s">
+        <v>241</v>
+      </c>
+      <c r="I189" t="s">
+        <v>226</v>
+      </c>
+      <c r="J189">
+        <v>5.7821230010976873E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H190" t="s">
+        <v>241</v>
+      </c>
+      <c r="I190" t="s">
+        <v>227</v>
+      </c>
+      <c r="J190">
+        <v>5.7756026922918505E-5</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H191" t="s">
+        <v>241</v>
+      </c>
+      <c r="I191" t="s">
+        <v>228</v>
+      </c>
+      <c r="J191">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H192" t="s">
+        <v>241</v>
+      </c>
+      <c r="I192" t="s">
+        <v>229</v>
+      </c>
+      <c r="J192">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H193" t="s">
+        <v>241</v>
+      </c>
+      <c r="I193" t="s">
+        <v>230</v>
+      </c>
+      <c r="J193">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H194" t="s">
+        <v>241</v>
+      </c>
+      <c r="I194" t="s">
+        <v>231</v>
+      </c>
+      <c r="J194">
+        <v>5.7824991727595635E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H195" t="s">
+        <v>241</v>
+      </c>
+      <c r="I195" t="s">
+        <v>232</v>
+      </c>
+      <c r="J195">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>241</v>
+      </c>
+      <c r="I196" t="s">
+        <v>233</v>
+      </c>
+      <c r="J196">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>241</v>
+      </c>
+      <c r="I197" t="s">
+        <v>234</v>
+      </c>
+      <c r="J197">
+        <v>5.788016357133733E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>241</v>
+      </c>
+      <c r="I198" t="s">
+        <v>235</v>
+      </c>
+      <c r="J198">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>241</v>
+      </c>
+      <c r="I199" t="s">
+        <v>236</v>
+      </c>
+      <c r="J199">
+        <v>5.747765989313082E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>241</v>
+      </c>
+      <c r="I200" t="s">
+        <v>237</v>
+      </c>
+      <c r="J200">
+        <v>5.721183191873898E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>241</v>
+      </c>
+      <c r="I201" t="s">
+        <v>238</v>
+      </c>
+      <c r="J201">
+        <v>5.6907132872620041E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>241</v>
+      </c>
+      <c r="I202" t="s">
+        <v>239</v>
+      </c>
+      <c r="J202">
+        <v>5.6151027832250805E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>241</v>
+      </c>
+      <c r="I203" t="s">
+        <v>240</v>
+      </c>
+      <c r="J203">
+        <v>5.5944133418219416E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290BF82-7931-46E8-83D0-D2BAFEB16E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7433C03C-AA1A-47A5-A056-CDEA67AA6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -318,19 +318,22 @@
     <t>elc_buildings</t>
   </si>
   <si>
-    <t>&lt;NA&gt;a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aAllH</t>
-  </si>
-  <si>
-    <t>AllSa&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>elc_industry</t>
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E51489-132E-4E7E-B271-C8304B9479AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D327CC-9CAA-408F-B435-A787939E7629}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1577,22 +1580,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1B3BE2-09B6-4BA7-A297-F3B84E5D32DB}">
-  <dimension ref="B2:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082E3C97-915C-4C8D-AC0D-7CF2F2DB7975}">
+  <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -1617,8 +1623,17 @@
       <c r="K3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -1642,6 +1657,15 @@
       </c>
       <c r="K4" t="s">
         <v>87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>1.2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1650,8 +1674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060CE8A7-81EC-4684-9499-E108C38607B2}">
-  <dimension ref="B2:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B79FF-29C5-445E-9FCE-F76284FE6BF0}">
+  <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1697,7 +1721,7 @@
         <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -1717,16 +1741,16 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O4">
         <v>0.29855360491322314</v>
@@ -1734,106 +1758,13 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5">
-        <v>0.29855360491322314</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6">
-        <v>0.25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6">
-        <v>0.29855360491322314</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7">
-        <v>0.25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7">
-        <v>0.29855360491322314</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCD41D-9823-4114-8E56-860BE0B0523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A1352-B460-48A2-8F89-855B5313E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A12CBFF-03C1-46B3-9463-D5C50FCC588C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E75CC-6DC9-42D4-B717-C372B09C4BED}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D37C5F4-F067-4868-94B8-56A461A915AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CD54E-317F-424A-ABED-0E2A11506825}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5D003C-0B41-4A80-92B3-DAE492D661C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71448C97-FF3F-40A3-8764-7C1B04EA40BD}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A1352-B460-48A2-8F89-855B5313E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6904AD-46D0-4077-A41D-F4938D6A1B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E75CC-6DC9-42D4-B717-C372B09C4BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF72DBC0-5567-4F71-8BC9-6D1C22CCB6E5}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CD54E-317F-424A-ABED-0E2A11506825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F7A54E-ACDE-419C-AF88-71D94644C427}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71448C97-FF3F-40A3-8764-7C1B04EA40BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D802B879-BD93-4215-9FBC-EA538ADB208F}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6904AD-46D0-4077-A41D-F4938D6A1B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3DEB2D-36CE-4A37-9258-411B7CC9D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF72DBC0-5567-4F71-8BC9-6D1C22CCB6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047EA70-F975-4190-B660-D4161F34ECD3}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F7A54E-ACDE-419C-AF88-71D94644C427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5976645-B2CB-4EC6-B877-CDC454D7F9C5}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D802B879-BD93-4215-9FBC-EA538ADB208F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA62FF1-5A27-4366-A93B-729646C13CB9}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3DEB2D-36CE-4A37-9258-411B7CC9D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773D585-C1F8-4799-A095-B3D6F14E2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047EA70-F975-4190-B660-D4161F34ECD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60184250-DD1E-42E6-9EE1-045E1EF113D8}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5976645-B2CB-4EC6-B877-CDC454D7F9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1003A0B0-9531-489A-94A9-6E3166D7BC81}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA62FF1-5A27-4366-A93B-729646C13CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9583A4-B3AA-4CCA-9F19-40E4ED463B1C}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773D585-C1F8-4799-A095-B3D6F14E2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30745D4-7E7A-4C9F-81D4-11227DD83883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60184250-DD1E-42E6-9EE1-045E1EF113D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D17F2D-690D-46DF-942D-D35871C77676}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1003A0B0-9531-489A-94A9-6E3166D7BC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1873C-238C-484C-982E-CCEBF9C10E72}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9583A4-B3AA-4CCA-9F19-40E4ED463B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030E70BA-46B4-49A0-A42A-A325CE890442}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30745D4-7E7A-4C9F-81D4-11227DD83883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD027E8-FDE5-42AD-A065-96E4AF2E1F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D17F2D-690D-46DF-942D-D35871C77676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E2185E-919C-4CC4-9D09-15FE9BC08B36}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1873C-238C-484C-982E-CCEBF9C10E72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBCFDE6-B3A8-498E-977E-773F1FAE0CCD}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030E70BA-46B4-49A0-A42A-A325CE890442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03EC87C-0A08-48D2-AC89-968532DD452D}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD027E8-FDE5-42AD-A065-96E4AF2E1F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1433E-9F88-4076-8EBA-D85E235B1740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E2185E-919C-4CC4-9D09-15FE9BC08B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A498A-926B-4D23-A8C5-D8E85527B753}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBCFDE6-B3A8-498E-977E-773F1FAE0CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E75065D-EA38-49AB-9905-E661731A5826}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03EC87C-0A08-48D2-AC89-968532DD452D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039466EA-54C3-4761-A125-A156B9B476A3}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1433E-9F88-4076-8EBA-D85E235B1740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C04BAD-DF56-4DAE-AD31-9DF1D08D7B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A498A-926B-4D23-A8C5-D8E85527B753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96DCA68-CA0C-45F4-8072-60AEEEC3C96C}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E75065D-EA38-49AB-9905-E661731A5826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBFE14-AEAA-4A6D-877E-D5AB39804721}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039466EA-54C3-4761-A125-A156B9B476A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DE1EC5-6E7F-4DFB-A51B-B766A7CA1E41}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
